--- a/InputData/ccs/CSA/Carbon Sequestration Amounts.xlsx
+++ b/InputData/ccs/CSA/Carbon Sequestration Amounts.xlsx
@@ -1,36 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman.hennig\World Resources Institute\TRAC City - HK 2050 is now\InputData FOR HONG KONG\InputData USA for reference\ccs\CSA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\ccs\CSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="11_2E2B9354C03520DD38C1F8E7EE3DF22C84C7332B" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{9F3814C6-64E5-4778-A9AB-313D0D319CE8}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="20115" windowHeight="12075" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="18840" windowHeight="5490"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="CCS study roadmap" sheetId="9" r:id="rId2"/>
-    <sheet name="CSA-BTCS" sheetId="5" r:id="rId3"/>
-    <sheet name="CSA-ACP" sheetId="6" r:id="rId4"/>
+    <sheet name="ETP data" sheetId="7" r:id="rId2"/>
+    <sheet name="MIT Data" sheetId="11" r:id="rId3"/>
+    <sheet name="CSA-BTCS" sheetId="5" r:id="rId4"/>
+    <sheet name="CSA-ACP" sheetId="10" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
+  <si>
+    <t>International Energy Agency</t>
+  </si>
+  <si>
+    <t>Source:</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>IEA has three CCS scenarios, corresponding to packages of actions (not all CCS) leading to different levels of warming.</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
   <si>
     <t>CSA BAU Tons CO2 Sequestered</t>
   </si>
@@ -38,86 +46,131 @@
     <t>CSA Additional CCS Potential</t>
   </si>
   <si>
-    <t>Source:</t>
+    <t>Notes on BAU Tons CO2 Sequestered:</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Bottom Scenario ID</t>
+  </si>
+  <si>
+    <t>Carbon capture and storage</t>
+  </si>
+  <si>
+    <t>United States</t>
   </si>
   <si>
     <t>Additional CCS Potential</t>
   </si>
   <si>
-    <t>Notes on BAU Tons CO2 Sequestered:</t>
-  </si>
-  <si>
-    <t>Notes on Additional CCS Potential:</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>BAU CO2 Stored (tons/yr)</t>
-  </si>
-  <si>
-    <t>Additional Potential CO2 Stored (tons/yr)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCUS Development Roadmap Study for Guangdong Province, China </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feasibility Study of CCS-Readiness in Guangdong Province (GDCCSR) Final Report: Part 6 </t>
-  </si>
-  <si>
-    <t>http://decarboni.se/sites/default/files/publications/115598/ccus-development-roadmap-study-for-guangdong-province-china.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p. 36: 3.4 The development roadmap of CO2 utilization and storage for Guangdong Province </t>
-  </si>
-  <si>
-    <t>There are currently no plants equipped with CCS capability and no known plans.</t>
-  </si>
-  <si>
-    <t>We use the roadmap for Guangdong province, as HK is very similar and can use the same storage formations.</t>
-  </si>
-  <si>
-    <t>Activity</t>
-  </si>
-  <si>
-    <t>Storage</t>
-  </si>
-  <si>
-    <t>Demonstration Plant</t>
-  </si>
-  <si>
-    <t>Mt CO2/yr</t>
-  </si>
-  <si>
-    <t>start project construction for offshore saline formation CO2 storage</t>
-  </si>
-  <si>
-    <t>start offshore storage</t>
-  </si>
-  <si>
-    <t>p. 24: Figure 2.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We assume that once offshore storage is available and accessible with a pipeline, </t>
-  </si>
-  <si>
-    <t>storage can be ramped up by 1 additional Mt CO2 each year.</t>
-  </si>
-  <si>
-    <t>ramp up storage</t>
-  </si>
-  <si>
-    <t>additional Mt CO2 each year</t>
+    <t>Database accessed 3/3/2016</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Massachusetts Institute of Technology</t>
+  </si>
+  <si>
+    <t>Non-Power Plant Carbon Dioxide Capture and Storage Projects</t>
+  </si>
+  <si>
+    <t>https://sequestration.mit.edu/tools/projects/storage_only.html</t>
+  </si>
+  <si>
+    <t>Size (million tons/yr)</t>
+  </si>
+  <si>
+    <t>Cranfield</t>
+  </si>
+  <si>
+    <t>Citronelle</t>
+  </si>
+  <si>
+    <t>Decatur</t>
+  </si>
+  <si>
+    <t>Northern Reef Trend</t>
+  </si>
+  <si>
+    <t>Farnsworth</t>
+  </si>
+  <si>
+    <t>Bell Creek</t>
+  </si>
+  <si>
+    <t>Port Arthur</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Ran 2008-2015</t>
+  </si>
+  <si>
+    <t>Operational since 2012</t>
+  </si>
+  <si>
+    <t>Ran 2011-2014</t>
+  </si>
+  <si>
+    <t>Operational since 2013</t>
+  </si>
+  <si>
+    <t>Kevin Dome</t>
+  </si>
+  <si>
+    <t>Planning phase</t>
+  </si>
+  <si>
+    <t>IL-CCS</t>
+  </si>
+  <si>
+    <t>Reference Technology Scenario</t>
+  </si>
+  <si>
+    <t>Beyond 2DS</t>
+  </si>
+  <si>
+    <t>Energy Technology Perspectives 2017</t>
+  </si>
+  <si>
+    <t>https://www.iea.org/etp2017/</t>
+  </si>
+  <si>
+    <t>Access Data tab: ETP 2017 scenario summary (United States tab)</t>
+  </si>
+  <si>
+    <t>We use the Reference Technology Scenario as our BAU case, as it represents no policies beyond those in place today.</t>
+  </si>
+  <si>
+    <t>We use the Beyond 2 Degrees Scenario as the additional potential. We linearly interpolate for years we don't know explicitly.</t>
+  </si>
+  <si>
+    <t>However, these scenarios don't give CCS amounts before 2025. We estimate pre-2025 values from a MIT database of CCS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facilities. </t>
+  </si>
+  <si>
+    <t>Current CCS Amount</t>
+  </si>
+  <si>
+    <t>Additional Potential CO2 Stored (metric tons CO2e per year)</t>
+  </si>
+  <si>
+    <t>BAU CO2 Stored (metric tons CO2e this year)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,6 +194,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -156,9 +225,18 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -169,18 +247,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -202,55 +302,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>160980</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>75680</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55E41D48-6233-4322-BC2B-8B5E5DD57E16}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7658100" y="295275"/>
-          <a:ext cx="7561905" cy="4161905"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -329,23 +380,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -381,23 +415,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -573,11 +590,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,430 +607,402 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
-        <v>2013</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
-        <v>11</v>
+      <c r="B8" s="9" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>21</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>13</v>
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>14</v>
-      </c>
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="6"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
-      <c r="C30" s="3"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
       <c r="D30" s="4"/>
-      <c r="E30" s="3"/>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
-      <c r="C32" s="3"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="6"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
-      <c r="C33" s="3"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="6"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="1"/>
-      <c r="C34" s="3"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1" xr:uid="{DA340C83-173E-47E2-8BD3-486A02985139}"/>
+    <hyperlink ref="B8" r:id="rId1"/>
+    <hyperlink ref="B15" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2020</v>
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="11">
+        <v>2025</v>
+      </c>
+      <c r="E1" s="13">
+        <v>2030</v>
+      </c>
+      <c r="F1" s="13">
+        <v>2035</v>
+      </c>
+      <c r="G1" s="13">
+        <v>2040</v>
+      </c>
+      <c r="H1" s="11">
+        <v>2045</v>
+      </c>
+      <c r="I1" s="11">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2025</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2030</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="14">
+        <v>16.582290337592905</v>
+      </c>
+      <c r="E2" s="14">
+        <v>23.814401470978432</v>
+      </c>
+      <c r="F2" s="14">
+        <v>54.771458505375684</v>
+      </c>
+      <c r="G2" s="14">
+        <v>84.398598642794894</v>
+      </c>
+      <c r="H2" s="14">
+        <v>114.97043616285887</v>
+      </c>
+      <c r="I2" s="14">
+        <v>137.31647282194587</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="14">
+        <v>74.522465374238834</v>
+      </c>
+      <c r="E3" s="14">
+        <v>209.0508936872576</v>
+      </c>
+      <c r="F3" s="14">
+        <v>402.9229168665147</v>
+      </c>
+      <c r="G3" s="14">
+        <v>713.68496475914014</v>
+      </c>
+      <c r="H3" s="14">
+        <v>1034.8748748212665</v>
+      </c>
+      <c r="I3" s="14">
+        <v>1143.6279327949492</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
-    <tabColor theme="3"/>
-  </sheetPr>
-  <dimension ref="A1:AK2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
-    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1">
-        <v>2015</v>
-      </c>
-      <c r="C1">
-        <v>2016</v>
-      </c>
-      <c r="D1">
-        <v>2017</v>
-      </c>
-      <c r="E1">
-        <v>2018</v>
-      </c>
-      <c r="F1">
-        <v>2019</v>
-      </c>
-      <c r="G1">
-        <v>2020</v>
-      </c>
-      <c r="H1">
-        <v>2021</v>
-      </c>
-      <c r="I1">
-        <v>2022</v>
-      </c>
-      <c r="J1">
-        <v>2023</v>
-      </c>
-      <c r="K1">
-        <v>2024</v>
-      </c>
-      <c r="L1">
-        <v>2025</v>
-      </c>
-      <c r="M1">
-        <v>2026</v>
-      </c>
-      <c r="N1">
-        <v>2027</v>
-      </c>
-      <c r="O1">
-        <v>2028</v>
-      </c>
-      <c r="P1">
-        <v>2029</v>
-      </c>
-      <c r="Q1">
-        <v>2030</v>
-      </c>
-      <c r="R1">
-        <v>2031</v>
-      </c>
-      <c r="S1">
-        <v>2032</v>
-      </c>
-      <c r="T1">
-        <v>2033</v>
-      </c>
-      <c r="U1">
-        <v>2034</v>
-      </c>
-      <c r="V1">
-        <v>2035</v>
-      </c>
-      <c r="W1">
-        <v>2036</v>
-      </c>
-      <c r="X1">
-        <v>2037</v>
-      </c>
-      <c r="Y1">
-        <v>2038</v>
-      </c>
-      <c r="Z1">
-        <v>2039</v>
-      </c>
-      <c r="AA1">
-        <v>2040</v>
-      </c>
-      <c r="AB1">
-        <v>2041</v>
-      </c>
-      <c r="AC1">
-        <v>2042</v>
-      </c>
-      <c r="AD1">
-        <v>2043</v>
-      </c>
-      <c r="AE1">
-        <v>2044</v>
-      </c>
-      <c r="AF1">
-        <v>2045</v>
-      </c>
-      <c r="AG1">
-        <v>2046</v>
-      </c>
-      <c r="AH1">
-        <v>2047</v>
-      </c>
-      <c r="AI1">
-        <v>2048</v>
-      </c>
-      <c r="AJ1">
-        <v>2049</v>
-      </c>
-      <c r="AK1">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="7">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7">
-        <v>0</v>
-      </c>
-      <c r="D2" s="7">
-        <v>0</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0</v>
-      </c>
-      <c r="F2" s="7">
-        <v>0</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="7">
-        <v>0</v>
-      </c>
-      <c r="J2" s="7">
-        <v>0</v>
-      </c>
-      <c r="K2" s="7">
-        <v>0</v>
-      </c>
-      <c r="L2" s="7">
-        <v>0</v>
-      </c>
-      <c r="M2" s="7">
-        <v>0</v>
-      </c>
-      <c r="N2" s="7">
-        <v>0</v>
-      </c>
-      <c r="O2" s="7">
-        <v>0</v>
-      </c>
-      <c r="P2" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="7">
-        <v>0</v>
-      </c>
-      <c r="R2" s="7">
-        <v>0</v>
-      </c>
-      <c r="S2" s="7">
-        <v>0</v>
-      </c>
-      <c r="T2" s="7">
-        <v>0</v>
-      </c>
-      <c r="U2" s="7">
-        <v>0</v>
-      </c>
-      <c r="V2" s="7">
-        <v>0</v>
-      </c>
-      <c r="W2" s="7">
-        <v>0</v>
-      </c>
-      <c r="X2" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="7">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="7">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>1.5</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>0.25</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <v>0.33</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <v>0.2</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8">
+        <v>0.125</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1022,277 +1011,558 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AK2"/>
+  <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD16" sqref="AD16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.28515625" customWidth="1"/>
-    <col min="2" max="17" width="9.5703125" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C1">
+        <v>2017</v>
+      </c>
+      <c r="D1">
+        <v>2018</v>
+      </c>
+      <c r="E1">
+        <v>2019</v>
+      </c>
+      <c r="F1">
+        <v>2020</v>
+      </c>
+      <c r="G1">
+        <v>2021</v>
+      </c>
+      <c r="H1">
+        <v>2022</v>
+      </c>
+      <c r="I1">
+        <v>2023</v>
+      </c>
+      <c r="J1">
+        <v>2024</v>
+      </c>
+      <c r="K1">
+        <v>2025</v>
+      </c>
+      <c r="L1">
+        <v>2026</v>
+      </c>
+      <c r="M1">
+        <v>2027</v>
+      </c>
+      <c r="N1">
+        <v>2028</v>
+      </c>
+      <c r="O1">
+        <v>2029</v>
+      </c>
+      <c r="P1">
+        <v>2030</v>
+      </c>
+      <c r="Q1">
+        <v>2031</v>
+      </c>
+      <c r="R1">
+        <v>2032</v>
+      </c>
+      <c r="S1">
+        <v>2033</v>
+      </c>
+      <c r="T1">
+        <v>2034</v>
+      </c>
+      <c r="U1">
+        <v>2035</v>
+      </c>
+      <c r="V1">
+        <v>2036</v>
+      </c>
+      <c r="W1">
+        <v>2037</v>
+      </c>
+      <c r="X1">
+        <v>2038</v>
+      </c>
+      <c r="Y1">
+        <v>2039</v>
+      </c>
+      <c r="Z1">
+        <v>2040</v>
+      </c>
+      <c r="AA1">
+        <v>2041</v>
+      </c>
+      <c r="AB1">
+        <v>2042</v>
+      </c>
+      <c r="AC1">
+        <v>2043</v>
+      </c>
+      <c r="AD1">
+        <v>2044</v>
+      </c>
+      <c r="AE1">
+        <v>2045</v>
+      </c>
+      <c r="AF1">
+        <v>2046</v>
+      </c>
+      <c r="AG1">
+        <v>2047</v>
+      </c>
+      <c r="AH1">
+        <v>2048</v>
+      </c>
+      <c r="AI1">
+        <v>2049</v>
+      </c>
+      <c r="AJ1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="8">
+        <f>SUM('MIT Data'!B2:B10)*10^6</f>
+        <v>5770000</v>
+      </c>
+      <c r="C2" s="8">
+        <f>($K$2-$B$2)/COUNT($C$1:$J$1)+B2</f>
+        <v>7121536.2921991134</v>
+      </c>
+      <c r="D2" s="8">
+        <f t="shared" ref="D2:J2" si="0">($K$2-$B$2)/COUNT($C$1:$J$1)+C2</f>
+        <v>8473072.5843982268</v>
+      </c>
+      <c r="E2" s="8">
+        <f t="shared" si="0"/>
+        <v>9824608.8765973393</v>
+      </c>
+      <c r="F2" s="8">
+        <f t="shared" si="0"/>
+        <v>11176145.168796452</v>
+      </c>
+      <c r="G2" s="8">
+        <f t="shared" si="0"/>
+        <v>12527681.460995564</v>
+      </c>
+      <c r="H2" s="8">
+        <f t="shared" si="0"/>
+        <v>13879217.753194677</v>
+      </c>
+      <c r="I2" s="8">
+        <f t="shared" si="0"/>
+        <v>15230754.045393789</v>
+      </c>
+      <c r="J2" s="8">
+        <f t="shared" si="0"/>
+        <v>16582290.337592902</v>
+      </c>
+      <c r="K2" s="8">
+        <f>'ETP data'!D2*10^6</f>
+        <v>16582290.337592905</v>
+      </c>
+      <c r="L2" s="8">
+        <f>(($P$2-$K$2)/COUNT($L$1:$P$1))+K2</f>
+        <v>18028712.564270012</v>
+      </c>
+      <c r="M2" s="8">
+        <f t="shared" ref="M2:O2" si="1">(($P$2-$K$2)/COUNT($L$1:$P$1))+L2</f>
+        <v>19475134.790947117</v>
+      </c>
+      <c r="N2" s="8">
+        <f t="shared" si="1"/>
+        <v>20921557.017624222</v>
+      </c>
+      <c r="O2" s="8">
+        <f t="shared" si="1"/>
+        <v>22367979.244301327</v>
+      </c>
+      <c r="P2" s="8">
+        <f>'ETP data'!E2*10^6</f>
+        <v>23814401.470978431</v>
+      </c>
+      <c r="Q2" s="8">
+        <f>(($U$2-$P$2)/COUNT($Q$1:$U$1))+P2</f>
+        <v>30005812.877857883</v>
+      </c>
+      <c r="R2" s="8">
+        <f t="shared" ref="R2:T2" si="2">(($U$2-$P$2)/COUNT($Q$1:$U$1))+Q2</f>
+        <v>36197224.284737334</v>
+      </c>
+      <c r="S2" s="8">
+        <f t="shared" si="2"/>
+        <v>42388635.691616781</v>
+      </c>
+      <c r="T2" s="8">
+        <f t="shared" si="2"/>
+        <v>48580047.098496228</v>
+      </c>
+      <c r="U2" s="8">
+        <f>'ETP data'!F2*10^6</f>
+        <v>54771458.505375683</v>
+      </c>
+      <c r="V2" s="8">
+        <f>(($Z$2-$U$2)/COUNT($V$1:$Z$1))+U2</f>
+        <v>60696886.532859527</v>
+      </c>
+      <c r="W2" s="8">
+        <f t="shared" ref="W2:Y2" si="3">(($Z$2-$U$2)/COUNT($V$1:$Z$1))+V2</f>
+        <v>66622314.56034337</v>
+      </c>
+      <c r="X2" s="8">
+        <f t="shared" si="3"/>
+        <v>72547742.587827206</v>
+      </c>
+      <c r="Y2" s="8">
+        <f t="shared" si="3"/>
+        <v>78473170.615311041</v>
+      </c>
+      <c r="Z2" s="8">
+        <f>'ETP data'!G2*10^6</f>
+        <v>84398598.642794892</v>
+      </c>
+      <c r="AA2" s="8">
+        <f>(($AE$2-$Z$2)/COUNT($AA$1:$AE$1))+Z2</f>
+        <v>90512966.146807685</v>
+      </c>
+      <c r="AB2" s="8">
+        <f t="shared" ref="AB2:AD2" si="4">(($AE$2-$Z$2)/COUNT($AA$1:$AE$1))+AA2</f>
+        <v>96627333.650820479</v>
+      </c>
+      <c r="AC2" s="8">
+        <f t="shared" si="4"/>
+        <v>102741701.15483327</v>
+      </c>
+      <c r="AD2" s="8">
+        <f t="shared" si="4"/>
+        <v>108856068.65884607</v>
+      </c>
+      <c r="AE2" s="8">
+        <f>'ETP data'!H2*10^6</f>
+        <v>114970436.16285887</v>
+      </c>
+      <c r="AF2" s="8">
+        <f>(($AJ$2-$AE$2)/COUNT($AF$1:$AJ$1))+AE2</f>
+        <v>119439643.49467628</v>
+      </c>
+      <c r="AG2" s="8">
+        <f t="shared" ref="AG2:AI2" si="5">(($AJ$2-$AE$2)/COUNT($AF$1:$AJ$1))+AF2</f>
+        <v>123908850.82649368</v>
+      </c>
+      <c r="AH2" s="8">
+        <f t="shared" si="5"/>
+        <v>128378058.15831108</v>
+      </c>
+      <c r="AI2" s="8">
+        <f t="shared" si="5"/>
+        <v>132847265.49012849</v>
+      </c>
+      <c r="AJ2" s="8">
+        <f>'ETP data'!I2*10^6</f>
+        <v>137316472.82194588</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:AJ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.140625" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1">
         <v>2016</v>
       </c>
+      <c r="C1">
+        <v>2017</v>
+      </c>
       <c r="D1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="F1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="G1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="H1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="I1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="J1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="K1">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="L1">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="M1">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="N1">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="O1">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="P1">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="Q1">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="R1">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="S1">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="T1">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="U1">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="V1">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="W1">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="X1">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="Y1">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="Z1">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="AA1">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="AB1">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="AC1">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="AD1">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="AE1">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="AF1">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="AG1">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="AH1">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="AI1">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="AJ1">
-        <v>2049</v>
-      </c>
-      <c r="AK1">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="7">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7">
-        <v>0</v>
-      </c>
-      <c r="D2" s="7">
-        <v>0</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0</v>
-      </c>
-      <c r="F2" s="7">
-        <v>0</v>
-      </c>
-      <c r="G2" s="7">
-        <f>'CCS study roadmap'!$C$2*10^6</f>
-        <v>1000000</v>
-      </c>
-      <c r="H2" s="7">
-        <f>'CCS study roadmap'!$C$2*10^6</f>
-        <v>1000000</v>
-      </c>
-      <c r="I2" s="7">
-        <f>'CCS study roadmap'!$C$2*10^6</f>
-        <v>1000000</v>
-      </c>
-      <c r="J2" s="7">
-        <f>'CCS study roadmap'!$C$2*10^6</f>
-        <v>1000000</v>
-      </c>
-      <c r="K2" s="7">
-        <f>'CCS study roadmap'!$C$2*10^6</f>
-        <v>1000000</v>
-      </c>
-      <c r="L2" s="7">
-        <f>'CCS study roadmap'!$C$2*10^6</f>
-        <v>1000000</v>
-      </c>
-      <c r="M2" s="7">
-        <f>'CCS study roadmap'!$C$2*10^6</f>
-        <v>1000000</v>
-      </c>
-      <c r="N2" s="7">
-        <f>'CCS study roadmap'!$C$2*10^6</f>
-        <v>1000000</v>
-      </c>
-      <c r="O2" s="7">
-        <f>'CCS study roadmap'!$C$2*10^6</f>
-        <v>1000000</v>
-      </c>
-      <c r="P2" s="7">
-        <f>'CCS study roadmap'!$C$2*10^6</f>
-        <v>1000000</v>
-      </c>
-      <c r="Q2" s="7">
-        <f>'CCS study roadmap'!$C$2*10^6+'CCS study roadmap'!$C$4*10^6</f>
-        <v>2000000</v>
-      </c>
-      <c r="R2" s="7">
-        <f>Q2++'CCS study roadmap'!$C$4*10^6</f>
-        <v>3000000</v>
-      </c>
-      <c r="S2" s="7">
-        <f>R2++'CCS study roadmap'!$C$4*10^6</f>
-        <v>4000000</v>
-      </c>
-      <c r="T2" s="7">
-        <f>S2++'CCS study roadmap'!$C$4*10^6</f>
-        <v>5000000</v>
-      </c>
-      <c r="U2" s="7">
-        <f>T2++'CCS study roadmap'!$C$4*10^6</f>
-        <v>6000000</v>
-      </c>
-      <c r="V2" s="7">
-        <f>U2++'CCS study roadmap'!$C$4*10^6</f>
-        <v>7000000</v>
-      </c>
-      <c r="W2" s="7">
-        <f>V2++'CCS study roadmap'!$C$4*10^6</f>
-        <v>8000000</v>
-      </c>
-      <c r="X2" s="7">
-        <f>W2++'CCS study roadmap'!$C$4*10^6</f>
-        <v>9000000</v>
-      </c>
-      <c r="Y2" s="7">
-        <f>X2++'CCS study roadmap'!$C$4*10^6</f>
-        <v>10000000</v>
-      </c>
-      <c r="Z2" s="7">
-        <f>Y2++'CCS study roadmap'!$C$4*10^6</f>
-        <v>11000000</v>
-      </c>
-      <c r="AA2" s="7">
-        <f>Z2++'CCS study roadmap'!$C$4*10^6</f>
-        <v>12000000</v>
-      </c>
-      <c r="AB2" s="7">
-        <f>AA2++'CCS study roadmap'!$C$4*10^6</f>
-        <v>13000000</v>
-      </c>
-      <c r="AC2" s="7">
-        <f>AB2++'CCS study roadmap'!$C$4*10^6</f>
-        <v>14000000</v>
-      </c>
-      <c r="AD2" s="7">
-        <f>AC2++'CCS study roadmap'!$C$4*10^6</f>
-        <v>15000000</v>
-      </c>
-      <c r="AE2" s="7">
-        <f>AD2++'CCS study roadmap'!$C$4*10^6</f>
-        <v>16000000</v>
-      </c>
-      <c r="AF2" s="7">
-        <f>AE2++'CCS study roadmap'!$C$4*10^6</f>
-        <v>17000000</v>
-      </c>
-      <c r="AG2" s="7">
-        <f>AF2++'CCS study roadmap'!$C$4*10^6</f>
-        <v>18000000</v>
-      </c>
-      <c r="AH2" s="7">
-        <f>AG2++'CCS study roadmap'!$C$4*10^6</f>
-        <v>19000000</v>
-      </c>
-      <c r="AI2" s="7">
-        <f>AH2++'CCS study roadmap'!$C$4*10^6</f>
-        <v>20000000</v>
-      </c>
-      <c r="AJ2" s="7">
-        <f>AI2++'CCS study roadmap'!$C$4*10^6</f>
-        <v>21000000</v>
-      </c>
-      <c r="AK2" s="7">
-        <f>AJ2++'CCS study roadmap'!$C$4*10^6</f>
-        <v>22000000</v>
+    <row r="2" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="8">
+        <f>'CSA-BTCS'!B2</f>
+        <v>5770000</v>
+      </c>
+      <c r="C2" s="8">
+        <f>'CSA-BTCS'!C2</f>
+        <v>7121536.2921991134</v>
+      </c>
+      <c r="D2" s="8">
+        <f>'CSA-BTCS'!D2</f>
+        <v>8473072.5843982268</v>
+      </c>
+      <c r="E2" s="8">
+        <f>($K$2-$D$2)/COUNT($E$1:$K$1)+D2</f>
+        <v>17908700.125804029</v>
+      </c>
+      <c r="F2" s="8">
+        <f t="shared" ref="F2:J2" si="0">($K$2-$D$2)/COUNT($E$1:$K$1)+E2</f>
+        <v>27344327.66720983</v>
+      </c>
+      <c r="G2" s="8">
+        <f t="shared" si="0"/>
+        <v>36779955.208615631</v>
+      </c>
+      <c r="H2" s="8">
+        <f t="shared" si="0"/>
+        <v>46215582.750021428</v>
+      </c>
+      <c r="I2" s="8">
+        <f t="shared" si="0"/>
+        <v>55651210.291427225</v>
+      </c>
+      <c r="J2" s="8">
+        <f t="shared" si="0"/>
+        <v>65086837.832833022</v>
+      </c>
+      <c r="K2" s="8">
+        <f>'ETP data'!D3*10^6</f>
+        <v>74522465.374238834</v>
+      </c>
+      <c r="L2" s="8">
+        <f>(($P$2-$K$2)/COUNT($L$1:$P$1))+K2</f>
+        <v>101428151.03684258</v>
+      </c>
+      <c r="M2" s="8">
+        <f t="shared" ref="M2:O2" si="1">(($P$2-$K$2)/COUNT($L$1:$P$1))+L2</f>
+        <v>128333836.69944634</v>
+      </c>
+      <c r="N2" s="8">
+        <f t="shared" si="1"/>
+        <v>155239522.36205009</v>
+      </c>
+      <c r="O2" s="8">
+        <f t="shared" si="1"/>
+        <v>182145208.02465382</v>
+      </c>
+      <c r="P2" s="8">
+        <f>'ETP data'!E3*10^6</f>
+        <v>209050893.68725759</v>
+      </c>
+      <c r="Q2" s="8">
+        <f>(($U$2-$P$2)/COUNT($Q$1:$U$1))+P2</f>
+        <v>247825298.323109</v>
+      </c>
+      <c r="R2" s="8">
+        <f t="shared" ref="R2:T2" si="2">(($U$2-$P$2)/COUNT($Q$1:$U$1))+Q2</f>
+        <v>286599702.95896041</v>
+      </c>
+      <c r="S2" s="8">
+        <f t="shared" si="2"/>
+        <v>325374107.59481186</v>
+      </c>
+      <c r="T2" s="8">
+        <f t="shared" si="2"/>
+        <v>364148512.2306633</v>
+      </c>
+      <c r="U2" s="8">
+        <f>'ETP data'!F3*10^6</f>
+        <v>402922916.86651468</v>
+      </c>
+      <c r="V2" s="8">
+        <f>(($Z$2-$U$2)/COUNT($V$1:$Z$1))+U2</f>
+        <v>465075326.44503975</v>
+      </c>
+      <c r="W2" s="8">
+        <f t="shared" ref="W2:Y2" si="3">(($Z$2-$U$2)/COUNT($V$1:$Z$1))+V2</f>
+        <v>527227736.02356482</v>
+      </c>
+      <c r="X2" s="8">
+        <f t="shared" si="3"/>
+        <v>589380145.60208988</v>
+      </c>
+      <c r="Y2" s="8">
+        <f t="shared" si="3"/>
+        <v>651532555.18061495</v>
+      </c>
+      <c r="Z2" s="8">
+        <f>'ETP data'!G3*10^6</f>
+        <v>713684964.75914013</v>
+      </c>
+      <c r="AA2" s="8">
+        <f>(($AE$2-$Z$2)/COUNT($AA$1:$AE$1))+Z2</f>
+        <v>777922946.77156544</v>
+      </c>
+      <c r="AB2" s="8">
+        <f t="shared" ref="AB2:AD2" si="4">(($AE$2-$Z$2)/COUNT($AA$1:$AE$1))+AA2</f>
+        <v>842160928.78399074</v>
+      </c>
+      <c r="AC2" s="8">
+        <f t="shared" si="4"/>
+        <v>906398910.79641604</v>
+      </c>
+      <c r="AD2" s="8">
+        <f t="shared" si="4"/>
+        <v>970636892.80884135</v>
+      </c>
+      <c r="AE2" s="8">
+        <f>'ETP data'!H3*10^6</f>
+        <v>1034874874.8212665</v>
+      </c>
+      <c r="AF2" s="8">
+        <f>(($AJ$2-$AE$2)/COUNT($AF$1:$AJ$1))+AE2</f>
+        <v>1056625486.4160031</v>
+      </c>
+      <c r="AG2" s="8">
+        <f t="shared" ref="AG2:AI2" si="5">(($AJ$2-$AE$2)/COUNT($AF$1:$AJ$1))+AF2</f>
+        <v>1078376098.0107396</v>
+      </c>
+      <c r="AH2" s="8">
+        <f t="shared" si="5"/>
+        <v>1100126709.6054761</v>
+      </c>
+      <c r="AI2" s="8">
+        <f t="shared" si="5"/>
+        <v>1121877321.2002127</v>
+      </c>
+      <c r="AJ2" s="8">
+        <f>'ETP data'!I3*10^6</f>
+        <v>1143627932.7949493</v>
       </c>
     </row>
   </sheetData>
@@ -1553,31 +1823,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E2FA1FA-8088-4CEE-9646-9B07623C1E49}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CF9DCEB-663F-4F19-8102-643447CC2D57}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37616F43-B38A-488C-9BFA-9FB9116C216C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F892D9EC-C3BE-4F74-BBBB-57C48D323F95}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7AED1DD-4617-4B45-B824-077709FA54C6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
-    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B146C45-BCC3-44D8-8952-4546B117FD24}"/>
 </file>